--- a/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_18.xlsx
+++ b/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_18.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_18_9</t>
+          <t>model_1_18_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9872601809783399</v>
+        <v>0.9055210723508172</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7297819302879922</v>
+        <v>0.7225504065684814</v>
       </c>
       <c r="D2" t="n">
-        <v>0.731341762879697</v>
+        <v>0.6751527088851557</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9557217980241429</v>
+        <v>0.9792735576053117</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05346629509953438</v>
+        <v>0.3965078481719674</v>
       </c>
       <c r="G2" t="n">
-        <v>1.806949476403998</v>
+        <v>1.855306708814473</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9609749364796967</v>
+        <v>1.161959924589626</v>
       </c>
       <c r="I2" t="n">
-        <v>0.04385774409556908</v>
+        <v>0.0527627453731366</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4329027551050904</v>
+        <v>1.575226944712508</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2312277991495278</v>
+        <v>0.6296886914753729</v>
       </c>
       <c r="L2" t="n">
-        <v>1.007457455037069</v>
+        <v>0.6760722480599448</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2410716452668538</v>
+        <v>0.6564958427067675</v>
       </c>
       <c r="N2" t="n">
-        <v>135.8574076435039</v>
+        <v>35.85011888895799</v>
       </c>
       <c r="O2" t="n">
-        <v>215.0843362599369</v>
+        <v>56.5710079117174</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_18_8</t>
+          <t>model_1_18_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9872245302584028</v>
+        <v>0.9060030681307077</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7294217245470137</v>
+        <v>0.7225117154853655</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7311490225111972</v>
+        <v>0.6750921355310308</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9595251280524911</v>
+        <v>0.9789386764712973</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05361591354461779</v>
+        <v>0.3944850149935257</v>
       </c>
       <c r="G3" t="n">
-        <v>1.809358173852517</v>
+        <v>1.855565436265425</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9616643576020923</v>
+        <v>1.162176591965086</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04009052980838461</v>
+        <v>0.05361524324362486</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4244016574092251</v>
+        <v>1.579912199266678</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2315511035271</v>
+        <v>0.6280804208009717</v>
       </c>
       <c r="L3" t="n">
-        <v>1.007478323751179</v>
+        <v>0.6777248050195694</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2414087133811116</v>
+        <v>0.6548191046201778</v>
       </c>
       <c r="N3" t="n">
-        <v>135.8518187209614</v>
+        <v>35.86034824844987</v>
       </c>
       <c r="O3" t="n">
-        <v>215.0787473373944</v>
+        <v>56.58123727120928</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_18_7</t>
+          <t>model_1_18_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9871758950878226</v>
+        <v>0.9132764470554428</v>
       </c>
       <c r="C4" t="n">
-        <v>0.729050566281461</v>
+        <v>0.7224145257001695</v>
       </c>
       <c r="D4" t="n">
-        <v>0.73091982781613</v>
+        <v>0.6738816134485499</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9631452624151933</v>
+        <v>0.9727027636780315</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05382002495138408</v>
+        <v>0.3639601995860663</v>
       </c>
       <c r="G4" t="n">
-        <v>1.811840110883294</v>
+        <v>1.856215344806548</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9624841737368753</v>
+        <v>1.166506559264017</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03650477159359667</v>
+        <v>0.06948983824717873</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4158414869045852</v>
+        <v>1.651908819596923</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2319914329267012</v>
+        <v>0.6032911399863803</v>
       </c>
       <c r="L4" t="n">
-        <v>1.007506793119323</v>
+        <v>0.7026621041900895</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2418677885148613</v>
+        <v>0.6289744928004238</v>
       </c>
       <c r="N4" t="n">
-        <v>135.8442193401509</v>
+        <v>36.02142151824034</v>
       </c>
       <c r="O4" t="n">
-        <v>215.071147956584</v>
+        <v>56.74231054099975</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_18_6</t>
+          <t>model_1_18_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9871140070060274</v>
+        <v>0.9144431327954183</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7286682844246479</v>
+        <v>0.7181723615599797</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7306538229560042</v>
+        <v>0.6736326167957361</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9665787893263692</v>
+        <v>0.9715231681457766</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05407975599142335</v>
+        <v>0.3590638691157593</v>
       </c>
       <c r="G5" t="n">
-        <v>1.81439643142005</v>
+        <v>1.884582715945367</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9634356576976975</v>
+        <v>1.167397205853477</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03310384883937756</v>
+        <v>0.07249270277773648</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4072198747845658</v>
+        <v>1.663889255807906</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2325505450249974</v>
+        <v>0.5992193831275481</v>
       </c>
       <c r="L5" t="n">
-        <v>1.007543020289155</v>
+        <v>0.7066621695842914</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2424507031727036</v>
+        <v>0.6247293928224125</v>
       </c>
       <c r="N5" t="n">
-        <v>135.834590718501</v>
+        <v>36.04850999583447</v>
       </c>
       <c r="O5" t="n">
-        <v>215.0615193349341</v>
+        <v>56.76939901859388</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_18_5</t>
+          <t>model_1_18_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9870385185908211</v>
+        <v>0.9147189381016163</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7282750798975318</v>
+        <v>0.7180995623378419</v>
       </c>
       <c r="D6" t="n">
-        <v>0.730350775872544</v>
+        <v>0.6735714109827842</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9698195986455197</v>
+        <v>0.9712380204829864</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05439656472137073</v>
+        <v>0.3579063732466164</v>
       </c>
       <c r="G6" t="n">
-        <v>1.817025791903415</v>
+        <v>1.885069524679012</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9645196395435551</v>
+        <v>1.167616135497489</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02989381366542586</v>
+        <v>0.07321859549193438</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3985490578396347</v>
+        <v>1.666751258849443</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2332307113597408</v>
+        <v>0.5982527670196073</v>
       </c>
       <c r="L6" t="n">
-        <v>1.007587208629763</v>
+        <v>0.7076077877769702</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2431598255964554</v>
+        <v>0.6237216258655853</v>
       </c>
       <c r="N6" t="n">
-        <v>135.8229085512368</v>
+        <v>36.05496770805948</v>
       </c>
       <c r="O6" t="n">
-        <v>215.0498371676699</v>
+        <v>56.77585673081889</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_18_4</t>
+          <t>model_1_18_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.98694912265525</v>
+        <v>0.9155105863872932</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7278709500821424</v>
+        <v>0.7178590392669171</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7300095940652873</v>
+        <v>0.6733895708431628</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9728639942215497</v>
+        <v>0.9704047765163045</v>
       </c>
       <c r="F7" t="n">
-        <v>0.05477174033915738</v>
+        <v>0.3545839947430382</v>
       </c>
       <c r="G7" t="n">
-        <v>1.819728209839771</v>
+        <v>1.886677903561794</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9657400270852545</v>
+        <v>1.168266567133217</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02687832712484754</v>
+        <v>0.07533976218376383</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3898245035014527</v>
+        <v>1.675044082471685</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2340336307865974</v>
+        <v>0.5954695582001134</v>
       </c>
       <c r="L7" t="n">
-        <v>1.007639537957902</v>
+        <v>0.7103220104707195</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2439969269655856</v>
+        <v>0.6208199300846091</v>
       </c>
       <c r="N7" t="n">
-        <v>135.8091618105644</v>
+        <v>36.07362004489827</v>
       </c>
       <c r="O7" t="n">
-        <v>215.0360904269975</v>
+        <v>56.79450906765768</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_18_3</t>
+          <t>model_1_18_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9868455747683056</v>
+        <v>0.9214934536550923</v>
       </c>
       <c r="C8" t="n">
-        <v>0.727456285230355</v>
+        <v>0.7156028044884688</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7296306224967066</v>
+        <v>0.671633451643009</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9757075258536714</v>
+        <v>0.9631460908732814</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05520630866943695</v>
+        <v>0.3294751806902144</v>
       </c>
       <c r="G8" t="n">
-        <v>1.82250107561303</v>
+        <v>1.901765355914283</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9670955864120334</v>
+        <v>1.174548103686525</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0240617971601202</v>
+        <v>0.09381800244484302</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3810459457604565</v>
+        <v>1.748365357517752</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2349602278459845</v>
+        <v>0.573999286315074</v>
       </c>
       <c r="L8" t="n">
-        <v>1.007700151355138</v>
+        <v>0.7308346982460308</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2449629711801112</v>
+        <v>0.5984356242758339</v>
       </c>
       <c r="N8" t="n">
-        <v>135.7933560894792</v>
+        <v>36.2205085040675</v>
       </c>
       <c r="O8" t="n">
-        <v>215.0202847059122</v>
+        <v>56.9413975268269</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_18_2</t>
+          <t>model_1_18_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9867274956951434</v>
+        <v>0.9231501377978657</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7270309051258397</v>
+        <v>0.7147905518636406</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7292127272386975</v>
+        <v>0.6709406964172906</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9783451907051148</v>
+        <v>0.9605572911892566</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05570186127972419</v>
+        <v>0.322522431745065</v>
       </c>
       <c r="G9" t="n">
-        <v>1.825345594330618</v>
+        <v>1.907196892956589</v>
       </c>
       <c r="H9" t="n">
-        <v>0.968590373518973</v>
+        <v>1.177026048960664</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0214491791019714</v>
+        <v>0.1004082399756826</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3722242257952476</v>
+        <v>1.776098428194602</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2360124176388272</v>
+        <v>0.5679105842868796</v>
       </c>
       <c r="L9" t="n">
-        <v>1.007769270812599</v>
+        <v>0.7365147581641109</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2460599548707683</v>
+        <v>0.5920877135969483</v>
       </c>
       <c r="N9" t="n">
-        <v>135.7754834329083</v>
+        <v>36.2631651787331</v>
       </c>
       <c r="O9" t="n">
-        <v>215.0024120493414</v>
+        <v>56.98405420149251</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_18_1</t>
+          <t>model_1_18_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9865945605570612</v>
+        <v>0.9232351507378724</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7265950999605413</v>
+        <v>0.714718779685046</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7287559698794541</v>
+        <v>0.670900556405335</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9807726415323792</v>
+        <v>0.9604099965320516</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05625976161643362</v>
+        <v>0.3221656506220403</v>
       </c>
       <c r="G10" t="n">
-        <v>1.828259825477667</v>
+        <v>1.907676833845331</v>
       </c>
       <c r="H10" t="n">
-        <v>0.970224168108673</v>
+        <v>1.177169627455978</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01904477891325586</v>
+        <v>0.1007832040117161</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3633567756566047</v>
+        <v>1.777642713367288</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2371914029142574</v>
+        <v>0.5675963800290135</v>
       </c>
       <c r="L10" t="n">
-        <v>1.007847086503184</v>
+        <v>0.7368062311012769</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2472891319902096</v>
+        <v>0.5917601330133324</v>
       </c>
       <c r="N10" t="n">
-        <v>135.7555514262124</v>
+        <v>36.26537884558507</v>
       </c>
       <c r="O10" t="n">
-        <v>214.9824800426454</v>
+        <v>56.98626786834448</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_18_0</t>
+          <t>model_1_18_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9864465084376626</v>
+        <v>0.9236325719223794</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7261489966427492</v>
+        <v>0.7143600436541006</v>
       </c>
       <c r="D11" t="n">
-        <v>0.728259853244185</v>
+        <v>0.6707057930084642</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9829849685916323</v>
+        <v>0.9596963346094148</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0568811046898649</v>
+        <v>0.3204977589280118</v>
       </c>
       <c r="G11" t="n">
-        <v>1.83124292041786</v>
+        <v>1.910075703336091</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9719987485465353</v>
+        <v>1.177866284833554</v>
       </c>
       <c r="I11" t="n">
-        <v>0.016853459715757</v>
+        <v>0.1025999539193723</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3544536488769325</v>
+        <v>1.785063967558193</v>
       </c>
       <c r="K11" t="n">
-        <v>0.238497598918448</v>
+        <v>0.5661252148844916</v>
       </c>
       <c r="L11" t="n">
-        <v>1.007933751158441</v>
+        <v>0.7381688180195864</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2486509354624971</v>
+        <v>0.5902263373228765</v>
       </c>
       <c r="N11" t="n">
-        <v>135.7335841445292</v>
+        <v>36.27575999014032</v>
       </c>
       <c r="O11" t="n">
-        <v>214.9605127609623</v>
+        <v>56.99664901289973</v>
       </c>
     </row>
   </sheetData>
